--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_17_4.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_17_4.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_17_4.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_17_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-276834.4728682037</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
     </row>
   </sheetData>
